--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3516814.733965235</v>
+        <v>3592344.403630041</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>318.0406985628276</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>158.4785919752546</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>209.3192495738131</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.4664709815991</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>61.63425920309675</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>316.8102175360598</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>43.31785343913975</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>294.8613066552039</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481182</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>104.417709166153</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250822</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229338</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>14.48345164522393</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491438</v>
       </c>
       <c r="R10" t="n">
-        <v>140.1997601007686</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>61.45955126663319</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>117.2630129887616</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>58.42247119226047</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>59.03274825660224</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
         <v>81.77913505274074</v>
@@ -2005,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>205.8806616357442</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2239,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.14957094459604</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2290,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>150.5893440210895</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.980494757784</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>66.8277281722894</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,13 +2560,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2767,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>104.8795979880454</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>215.6633586951776</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>40.12894055929409</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>10.13442842447714</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385047</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3204,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>91.86590817855205</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>220.3866928557993</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>18.60038226489474</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3444,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>238.3489988073148</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.94676868416112</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>184.7692123055255</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>139.437416673426</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>134.2724437449543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4135,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>154.0677550156852</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>233.5654595650919</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>802.0401021781393</v>
+        <v>1726.57441852865</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>1357.611901588238</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>1357.611901588238</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1357.611901588238</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>946.6259967986309</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>528.6621886968178</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
@@ -4346,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2537.069705184632</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2283.307919822723</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.245032479153</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.245032479153</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X2" t="n">
-        <v>1578.779274218073</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="Y2" t="n">
-        <v>1188.639942242261</v>
+        <v>2113.174258592772</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4428,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>487.2784796319623</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C4" t="n">
-        <v>487.2784796319623</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1618402196266</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>487.2784796319623</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>487.2784796319623</v>
+        <v>538.7689125078493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1915.885988017521</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1915.885988017521</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
         <v>1210.087414675782</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4656,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464703</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>2251.981069572902</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="V8" t="n">
-        <v>2119.280205127212</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="W8" t="n">
-        <v>1766.511549857098</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="X8" t="n">
-        <v>1766.511549857098</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="Y8" t="n">
-        <v>1376.372217881286</v>
+        <v>2251.981069572902</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598724</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.8646000824888</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600555</v>
       </c>
       <c r="R10" t="n">
-        <v>586.5130649127285</v>
+        <v>550.5654064942394</v>
       </c>
       <c r="S10" t="n">
-        <v>586.5130649127285</v>
+        <v>550.5654064942394</v>
       </c>
       <c r="T10" t="n">
-        <v>586.5130649127285</v>
+        <v>323.2572191628411</v>
       </c>
       <c r="U10" t="n">
-        <v>586.5130649127285</v>
+        <v>323.2572191628411</v>
       </c>
       <c r="V10" t="n">
-        <v>586.5130649127285</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="W10" t="n">
-        <v>586.5130649127285</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="X10" t="n">
-        <v>586.5130649127285</v>
+        <v>68.57273095695425</v>
       </c>
       <c r="Y10" t="n">
-        <v>586.5130649127285</v>
+        <v>68.57273095695425</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5026,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.3743239205529</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1436.835915743121</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1436.835915743121</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1147.70727695668</v>
+        <v>1269.393679252292</v>
       </c>
       <c r="V13" t="n">
-        <v>893.0227887507926</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="W13" t="n">
-        <v>893.0227887507926</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="X13" t="n">
-        <v>893.0227887507926</v>
+        <v>786.7196401483878</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.0227887507926</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="14">
@@ -5255,43 +5257,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899127</v>
@@ -5300,22 +5302,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.969903867171</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O15" t="n">
-        <v>2005.509969085868</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>641.8707282937978</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9345453658909</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>472.9345453658909</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>325.0214517834978</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>325.0214517834978</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>156.8461301033184</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>156.8461301033184</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.311772267568</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>1044.311772267568</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y16" t="n">
-        <v>823.5191931240375</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,31 +5503,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5537,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014775</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>3340.964766294737</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>4145.376344558887</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>237.776412546148</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C19" t="n">
-        <v>237.776412546148</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="X19" t="n">
-        <v>237.776412546148</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="Y19" t="n">
-        <v>237.776412546148</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5734,40 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263799</v>
+        <v>242.5343297994525</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465859</v>
+        <v>391.6040140015124</v>
       </c>
       <c r="L21" t="n">
-        <v>3138.955990222747</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M21" t="n">
-        <v>3446.276123502709</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>4250.68770176686</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.69918977486</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4071.38955607529</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C22" t="n">
-        <v>4071.38955607529</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D22" t="n">
-        <v>3921.272916662954</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E22" t="n">
-        <v>3773.359823080561</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>3773.359823080561</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>3605.184501400382</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.074044281177</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>4071.38955607529</v>
+        <v>1035.810708529129</v>
       </c>
       <c r="W22" t="n">
-        <v>4071.38955607529</v>
+        <v>746.3935384921685</v>
       </c>
       <c r="X22" t="n">
-        <v>4071.38955607529</v>
+        <v>746.3935384921685</v>
       </c>
       <c r="Y22" t="n">
-        <v>4071.38955607529</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5968,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>3138.955990222747</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>3569.372800808167</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>3899.2354284722</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4161.799387249075</v>
+        <v>4223.429265789278</v>
       </c>
       <c r="C25" t="n">
-        <v>3992.863204321168</v>
+        <v>4054.493082861371</v>
       </c>
       <c r="D25" t="n">
-        <v>3842.746564908833</v>
+        <v>3904.376443449036</v>
       </c>
       <c r="E25" t="n">
-        <v>3694.833471326439</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F25" t="n">
-        <v>3627.330715596854</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>4860.854573014292</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>4860.854573014292</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V25" t="n">
-        <v>4860.854573014292</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="W25" t="n">
-        <v>4571.437402977332</v>
+        <v>4347.651987766838</v>
       </c>
       <c r="X25" t="n">
-        <v>4343.447852079315</v>
+        <v>4347.651987766838</v>
       </c>
       <c r="Y25" t="n">
-        <v>4343.447852079315</v>
+        <v>4347.651987766838</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>462.7283310300495</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4334.202995919602</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C28" t="n">
-        <v>4334.202995919602</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507267</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4554.995575063132</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>4554.995575063132</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W28" t="n">
-        <v>4554.995575063132</v>
+        <v>826.4699958077928</v>
       </c>
       <c r="X28" t="n">
-        <v>4554.995575063132</v>
+        <v>598.4804449097754</v>
       </c>
       <c r="Y28" t="n">
-        <v>4334.202995919602</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6458,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M30" t="n">
-        <v>1124.115218311523</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1453.977845975555</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3904.075074409314</v>
+        <v>693.7762810288177</v>
       </c>
       <c r="C31" t="n">
-        <v>3904.075074409314</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D31" t="n">
-        <v>3753.958434996978</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E31" t="n">
-        <v>3606.045341414585</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916675</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1458.381987164677</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1458.381987164677</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1458.381987164677</v>
       </c>
       <c r="U31" t="n">
-        <v>4850.617776625932</v>
+        <v>1169.253348378235</v>
       </c>
       <c r="V31" t="n">
-        <v>4595.933288420045</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="W31" t="n">
-        <v>4306.516118383084</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="X31" t="n">
-        <v>4306.516118383084</v>
+        <v>914.5688601723479</v>
       </c>
       <c r="Y31" t="n">
-        <v>4085.723539239554</v>
+        <v>693.7762810288177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,61 +6691,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>485.5200852635867</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113634</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N33" t="n">
-        <v>1757.603879777666</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.4452354807079</v>
+        <v>696.2811958984814</v>
       </c>
       <c r="C34" t="n">
-        <v>415.509052552801</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6874,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1406.122423912901</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1206.202413828453</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1206.202413828453</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="X34" t="n">
-        <v>986.8862794544777</v>
+        <v>917.0737750420116</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.0937003109476</v>
+        <v>696.2811958984814</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K35" t="n">
-        <v>889.28419175141</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.9892362638</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.05892046586</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>3138.955990222748</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>3446.27612350271</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3776.138751166743</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>4445.602512469402</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557071</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>583.2726413366777</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C37" t="n">
-        <v>414.3364584087708</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D37" t="n">
-        <v>395.5481934947357</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>1147.084602667896</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>1147.084602667896</v>
       </c>
       <c r="W37" t="n">
-        <v>985.7136853104475</v>
+        <v>857.6674326309349</v>
       </c>
       <c r="X37" t="n">
-        <v>985.7136853104475</v>
+        <v>857.6674326309349</v>
       </c>
       <c r="Y37" t="n">
-        <v>764.9211061669174</v>
+        <v>857.6674326309349</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,28 +7174,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014294</v>
@@ -7202,16 +7204,16 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7251,28 +7253,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O39" t="n">
-        <v>1841.189502980821</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2361.490124716568</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>391.964542768369</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C40" t="n">
-        <v>356.6647764207315</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D40" t="n">
-        <v>356.6647764207315</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028589</v>
@@ -7333,13 +7335,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033469</v>
+        <v>1112.360692488076</v>
       </c>
       <c r="W40" t="n">
-        <v>619.9540936663864</v>
+        <v>822.9435224511154</v>
       </c>
       <c r="X40" t="n">
-        <v>391.964542768369</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y40" t="n">
-        <v>391.964542768369</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,61 +7402,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>3262.052667528205</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>3569.372800808167</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.9563154684963</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405894</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405894</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581963</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>850.373485505457</v>
+        <v>955.1031435655744</v>
       </c>
       <c r="W43" t="n">
-        <v>560.9563154684963</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="X43" t="n">
-        <v>560.9563154684963</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="Y43" t="n">
-        <v>560.9563154684963</v>
+        <v>665.6859735286139</v>
       </c>
     </row>
     <row r="44">
@@ -7634,40 +7636,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7713,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M45" t="n">
-        <v>1321.461721072713</v>
+        <v>1006.183580119175</v>
       </c>
       <c r="N45" t="n">
-        <v>1651.324348736746</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O45" t="n">
-        <v>2320.788110039405</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P45" t="n">
         <v>2525.810590821615</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.2953582963162</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C46" t="n">
-        <v>653.6713633309776</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D46" t="n">
-        <v>503.5547239186418</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881687978</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799271</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471098</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
-        <v>1049.608084974657</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980054</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585737</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557893</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119719</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119719</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119719</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333277</v>
+        <v>1063.071553842049</v>
       </c>
       <c r="V46" t="n">
-        <v>1098.712528333277</v>
+        <v>1063.071553842049</v>
       </c>
       <c r="W46" t="n">
-        <v>809.2953582963162</v>
+        <v>773.6543838050887</v>
       </c>
       <c r="X46" t="n">
-        <v>809.2953582963162</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="Y46" t="n">
-        <v>809.2953582963162</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270202</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627905</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>306.114737013996</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>20.6378986413543</v>
       </c>
       <c r="N15" t="n">
-        <v>94.13752431970607</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>145.2351313103786</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,25 +9479,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>38.86002301949793</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>124.3400780863221</v>
+        <v>308.1251096272028</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,28 +9956,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>285.1031356539329</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>295.3773510571265</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>199.7396287231143</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>297.2466435761028</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711664</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>180.023701673586</v>
       </c>
       <c r="P36" t="n">
-        <v>124.3400780863222</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>398.9629823660883</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.7176547498452</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599067</v>
+        <v>212.314990659902</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>104.6241510367933</v>
       </c>
       <c r="M42" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714801</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>113.602692129454</v>
+        <v>39.88923345256643</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>136.4612587169701</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>168.9743394098158</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>121.4095089896768</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>51.38649720766974</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>9.461745143208788</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>80.64233670084681</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>114.7642574229401</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>101.5482993027385</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>56.85148542415334</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>78.59331985064185</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,22 +24603,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24655,16 +24657,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>181.357754410532</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>70.85963964141339</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>69.83541184449868</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>276.1029239741002</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>18.09844422524071</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>5.322962533237813</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>130.0150907533176</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>47.88835359126256</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>132.3000524144667</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>67.36843101830246</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>27.80940442520182</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25839,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.8651995788737</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>13.1790660829426</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>52.6718928334854</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>691429.7925064221</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>691429.7925064224</v>
+        <v>691429.7925064223</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>691429.7925064224</v>
+        <v>691429.7925064223</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>691429.7925064223</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>691429.7925064221</v>
+        <v>691429.7925064224</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312477</v>
-      </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
         <v>684300.8545409901</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="I2" t="n">
+        <v>684300.85454099</v>
+      </c>
+      <c r="J2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.85454099</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="I2" t="n">
-        <v>684300.8545409901</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409907</v>
-      </c>
       <c r="K2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="O2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409905</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26395,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="C4" t="n">
-        <v>147917.0487159209</v>
-      </c>
-      <c r="D4" t="n">
-        <v>147917.0487159208</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007533</v>
+        <v>7916.731656007354</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007383</v>
+        <v>7916.731656007479</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007383</v>
+        <v>7916.731656007423</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007423</v>
+        <v>7916.731656007478</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007354</v>
+        <v>7916.731656007478</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26488,25 +26490,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871668</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102332.4573626269</v>
+        <v>-102332.4573626271</v>
       </c>
       <c r="C6" t="n">
-        <v>487635.4218519174</v>
+        <v>487635.4218519178</v>
       </c>
       <c r="D6" t="n">
-        <v>487635.4218519178</v>
+        <v>487635.4218519185</v>
       </c>
       <c r="E6" t="n">
-        <v>59236.76045936986</v>
+        <v>59236.76045936925</v>
       </c>
       <c r="F6" t="n">
+        <v>584396.7969362659</v>
+      </c>
+      <c r="G6" t="n">
+        <v>584396.7969362665</v>
+      </c>
+      <c r="H6" t="n">
+        <v>584396.7969362661</v>
+      </c>
+      <c r="I6" t="n">
+        <v>584396.7969362659</v>
+      </c>
+      <c r="J6" t="n">
+        <v>407973.5777436732</v>
+      </c>
+      <c r="K6" t="n">
         <v>584396.7969362662</v>
       </c>
-      <c r="G6" t="n">
-        <v>584396.7969362659</v>
-      </c>
-      <c r="H6" t="n">
-        <v>584396.796936266</v>
-      </c>
-      <c r="I6" t="n">
-        <v>584396.796936266</v>
-      </c>
-      <c r="J6" t="n">
-        <v>407973.5777436736</v>
-      </c>
-      <c r="K6" t="n">
-        <v>584396.796936266</v>
-      </c>
       <c r="L6" t="n">
-        <v>584396.7969362665</v>
+        <v>584396.7969362662</v>
       </c>
       <c r="M6" t="n">
-        <v>449595.781702429</v>
+        <v>449595.7817024292</v>
       </c>
       <c r="N6" t="n">
-        <v>584396.7969362668</v>
+        <v>584396.7969362661</v>
       </c>
       <c r="O6" t="n">
         <v>584396.7969362665</v>
       </c>
       <c r="P6" t="n">
-        <v>584396.7969362661</v>
+        <v>584396.7969362665</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26756,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,22 +26813,22 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="M4" t="n">
         <v>1215.213643253573</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>5.882074201529576</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>57.96972838240316</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>76.96262466816466</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.11818237049567</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>321.0995824603838</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>37.87282408462318</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>123.9289676594881</v>
+        <v>112.7712650795942</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>70.41158511580369</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>223.3345493039819</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>120.4821701471143</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853706</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.465431879389229</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29278,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29800,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-2.51058891544946e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-9.758166062076438e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633786</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473545</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.81250524001411</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188905</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.20177816491</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983119</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372661</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078602</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644434</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492002</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302229</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917248</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175832</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678001</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.91048397019722</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,43 +33496,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33733,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33970,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34207,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34444,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031296</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307168</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.31973343389</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713944</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700203</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>331.0622756918206</v>
       </c>
       <c r="N15" t="n">
-        <v>427.332097717719</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35972,16 +35974,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>427.5988335514868</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>146.7850892314815</v>
       </c>
       <c r="K21" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>321.2237252606061</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>434.7644551367884</v>
+        <v>618.5494866776692</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>327.2930933377838</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>595.5275127043992</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>577.7410532982348</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110537</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>579.6103458172109</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303347</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>462.3874039146943</v>
       </c>
       <c r="P36" t="n">
-        <v>331.4334930178469</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>709.3873594165548</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>264.7306875349194</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>353.8818559928177</v>
       </c>
       <c r="M42" t="n">
-        <v>616.5391140644624</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109101</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M45" t="n">
-        <v>424.0270691799203</v>
+        <v>350.3136105030329</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299012</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
